--- a/SchedulingData/static6/pso/scheduling1_20.xlsx
+++ b/SchedulingData/static6/pso/scheduling1_20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,17 +466,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>39.5</v>
+        <v>52.94</v>
       </c>
       <c r="E2" t="n">
-        <v>27.24</v>
+        <v>26.876</v>
       </c>
     </row>
     <row r="3">
@@ -485,36 +485,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>49.9</v>
+        <v>77.2</v>
       </c>
       <c r="E3" t="n">
-        <v>26.2</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>77.2</v>
       </c>
       <c r="D4" t="n">
-        <v>32.08</v>
+        <v>146</v>
       </c>
       <c r="E4" t="n">
-        <v>27.492</v>
+        <v>22.62</v>
       </c>
     </row>
     <row r="5">
@@ -523,17 +523,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>40</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>26.7</v>
+        <v>26.32</v>
       </c>
     </row>
     <row r="6">
@@ -542,112 +542,112 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>32.08</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>84.08</v>
+        <v>57.4</v>
       </c>
       <c r="E6" t="n">
-        <v>22.932</v>
+        <v>26.46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>64.42</v>
+        <v>53.94</v>
       </c>
       <c r="E7" t="n">
-        <v>25.728</v>
+        <v>26.776</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>39.5</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>102.88</v>
+        <v>82.66</v>
       </c>
       <c r="E8" t="n">
-        <v>23.992</v>
+        <v>24.904</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="D9" t="n">
-        <v>102.5</v>
+        <v>205.3</v>
       </c>
       <c r="E9" t="n">
-        <v>23.58</v>
+        <v>17.82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>49.9</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>125.74</v>
+        <v>130.14</v>
       </c>
       <c r="E10" t="n">
-        <v>22.196</v>
+        <v>22.736</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>82.66</v>
       </c>
       <c r="D11" t="n">
-        <v>68.45999999999999</v>
+        <v>146.76</v>
       </c>
       <c r="E11" t="n">
-        <v>26.304</v>
+        <v>19.624</v>
       </c>
     </row>
     <row r="12">
@@ -656,17 +656,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>68.45999999999999</v>
+        <v>53.94</v>
       </c>
       <c r="D12" t="n">
-        <v>116.16</v>
+        <v>113.6</v>
       </c>
       <c r="E12" t="n">
-        <v>22.664</v>
+        <v>21.94</v>
       </c>
     </row>
     <row r="13">
@@ -675,74 +675,74 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>102.88</v>
+        <v>52.94</v>
       </c>
       <c r="D13" t="n">
-        <v>168.52</v>
+        <v>106.46</v>
       </c>
       <c r="E13" t="n">
-        <v>19.568</v>
+        <v>22.664</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>84.08</v>
+        <v>146.76</v>
       </c>
       <c r="D14" t="n">
-        <v>171.6</v>
+        <v>217.56</v>
       </c>
       <c r="E14" t="n">
-        <v>17.78</v>
+        <v>14.164</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>171.6</v>
+        <v>130.14</v>
       </c>
       <c r="D15" t="n">
-        <v>235.76</v>
+        <v>188.98</v>
       </c>
       <c r="E15" t="n">
-        <v>13.984</v>
+        <v>18.472</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>116.16</v>
+        <v>217.56</v>
       </c>
       <c r="D16" t="n">
-        <v>194.9</v>
+        <v>267.7</v>
       </c>
       <c r="E16" t="n">
-        <v>18.4</v>
+        <v>11.26</v>
       </c>
     </row>
     <row r="17">
@@ -751,397 +751,397 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>102.5</v>
+        <v>188.98</v>
       </c>
       <c r="D17" t="n">
-        <v>165.68</v>
+        <v>233.38</v>
       </c>
       <c r="E17" t="n">
-        <v>20.852</v>
+        <v>16.152</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>235.76</v>
+        <v>106.46</v>
       </c>
       <c r="D18" t="n">
-        <v>292.74</v>
+        <v>163.96</v>
       </c>
       <c r="E18" t="n">
-        <v>10.396</v>
+        <v>19.024</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>168.52</v>
+        <v>113.6</v>
       </c>
       <c r="D19" t="n">
-        <v>254.12</v>
+        <v>161.86</v>
       </c>
       <c r="E19" t="n">
-        <v>14.108</v>
+        <v>18.244</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>254.12</v>
+        <v>267.7</v>
       </c>
       <c r="D20" t="n">
-        <v>316.38</v>
+        <v>314.14</v>
       </c>
       <c r="E20" t="n">
-        <v>9.012</v>
+        <v>8.236000000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>64.42</v>
+        <v>57.4</v>
       </c>
       <c r="D21" t="n">
-        <v>117.06</v>
+        <v>139.92</v>
       </c>
       <c r="E21" t="n">
-        <v>22.604</v>
+        <v>21.308</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>165.68</v>
+        <v>205.3</v>
       </c>
       <c r="D22" t="n">
-        <v>242.18</v>
+        <v>264.42</v>
       </c>
       <c r="E22" t="n">
-        <v>15.812</v>
+        <v>15.048</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>125.74</v>
+        <v>139.92</v>
       </c>
       <c r="D23" t="n">
-        <v>199.64</v>
+        <v>198.36</v>
       </c>
       <c r="E23" t="n">
-        <v>16.916</v>
+        <v>17.084</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>242.18</v>
+        <v>264.42</v>
       </c>
       <c r="D24" t="n">
-        <v>286.1</v>
+        <v>332.8</v>
       </c>
       <c r="E24" t="n">
-        <v>13.04</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>316.38</v>
+        <v>332.8</v>
       </c>
       <c r="D25" t="n">
-        <v>385.58</v>
+        <v>389.98</v>
       </c>
       <c r="E25" t="n">
-        <v>4.212</v>
+        <v>8.212</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>194.9</v>
+        <v>233.38</v>
       </c>
       <c r="D26" t="n">
-        <v>247.12</v>
+        <v>300.54</v>
       </c>
       <c r="E26" t="n">
-        <v>15.808</v>
+        <v>11.056</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>199.64</v>
+        <v>161.86</v>
       </c>
       <c r="D27" t="n">
-        <v>263.06</v>
+        <v>240.84</v>
       </c>
       <c r="E27" t="n">
-        <v>12.704</v>
+        <v>15.436</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>263.06</v>
+        <v>314.14</v>
       </c>
       <c r="D28" t="n">
-        <v>301.7</v>
+        <v>387.94</v>
       </c>
       <c r="E28" t="n">
-        <v>9.48</v>
+        <v>4.436</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>286.1</v>
+        <v>240.84</v>
       </c>
       <c r="D29" t="n">
-        <v>334.92</v>
+        <v>307.76</v>
       </c>
       <c r="E29" t="n">
-        <v>10.268</v>
+        <v>12.844</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>301.7</v>
+        <v>163.96</v>
       </c>
       <c r="D30" t="n">
-        <v>365.24</v>
+        <v>234.6</v>
       </c>
       <c r="E30" t="n">
-        <v>5.256</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>117.06</v>
+        <v>300.54</v>
       </c>
       <c r="D31" t="n">
-        <v>181.72</v>
+        <v>378.74</v>
       </c>
       <c r="E31" t="n">
-        <v>17.768</v>
+        <v>7.336</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>181.72</v>
+        <v>234.6</v>
       </c>
       <c r="D32" t="n">
-        <v>236.02</v>
+        <v>287.44</v>
       </c>
       <c r="E32" t="n">
-        <v>15.448</v>
+        <v>10.456</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>365.24</v>
+        <v>198.36</v>
       </c>
       <c r="D33" t="n">
-        <v>421.84</v>
+        <v>255.06</v>
       </c>
       <c r="E33" t="n">
-        <v>1.716</v>
+        <v>13.524</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>421.84</v>
+        <v>307.76</v>
       </c>
       <c r="D34" t="n">
-        <v>485.41</v>
+        <v>358.84</v>
       </c>
       <c r="E34" t="n">
-        <v>30</v>
+        <v>10.336</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>334.92</v>
+        <v>287.44</v>
       </c>
       <c r="D35" t="n">
-        <v>410.76</v>
+        <v>364.84</v>
       </c>
       <c r="E35" t="n">
-        <v>6.784</v>
+        <v>6.796</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>236.02</v>
+        <v>389.98</v>
       </c>
       <c r="D36" t="n">
-        <v>298.94</v>
+        <v>466.48</v>
       </c>
       <c r="E36" t="n">
-        <v>12.256</v>
+        <v>3.652</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>298.94</v>
+        <v>255.06</v>
       </c>
       <c r="D37" t="n">
-        <v>351.04</v>
+        <v>321.66</v>
       </c>
       <c r="E37" t="n">
-        <v>8.176</v>
+        <v>8.484</v>
       </c>
     </row>
     <row r="38">
@@ -1150,55 +1150,55 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>247.12</v>
+        <v>358.84</v>
       </c>
       <c r="D38" t="n">
-        <v>294.02</v>
+        <v>431.92</v>
       </c>
       <c r="E38" t="n">
-        <v>12.248</v>
+        <v>7.608</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>351.04</v>
+        <v>321.66</v>
       </c>
       <c r="D39" t="n">
-        <v>392.58</v>
+        <v>369.06</v>
       </c>
       <c r="E39" t="n">
-        <v>5.152</v>
+        <v>5.364</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>294.02</v>
+        <v>378.74</v>
       </c>
       <c r="D40" t="n">
-        <v>357.16</v>
+        <v>446.86</v>
       </c>
       <c r="E40" t="n">
-        <v>9.023999999999999</v>
+        <v>4.144</v>
       </c>
     </row>
     <row r="41">
@@ -1207,17 +1207,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>385.58</v>
+        <v>364.84</v>
       </c>
       <c r="D41" t="n">
-        <v>447.42</v>
+        <v>438.74</v>
       </c>
       <c r="E41" t="n">
-        <v>0.628</v>
+        <v>4.476</v>
       </c>
     </row>
     <row r="42">
@@ -1226,36 +1226,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>447.42</v>
+        <v>438.74</v>
       </c>
       <c r="D42" t="n">
-        <v>547.66</v>
+        <v>487.56</v>
       </c>
       <c r="E42" t="n">
-        <v>30</v>
+        <v>1.704</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>292.74</v>
+        <v>487.56</v>
       </c>
       <c r="D43" t="n">
-        <v>374.9</v>
+        <v>580.75</v>
       </c>
       <c r="E43" t="n">
-        <v>5.3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
@@ -1264,93 +1264,93 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>357.16</v>
+        <v>431.92</v>
       </c>
       <c r="D44" t="n">
-        <v>426.06</v>
+        <v>490.42</v>
       </c>
       <c r="E44" t="n">
-        <v>6.704</v>
+        <v>4.848</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>374.9</v>
+        <v>387.94</v>
       </c>
       <c r="D45" t="n">
-        <v>420.14</v>
+        <v>451.86</v>
       </c>
       <c r="E45" t="n">
-        <v>2.396</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>485.41</v>
+        <v>451.86</v>
       </c>
       <c r="D46" t="n">
-        <v>573.51</v>
+        <v>543.23</v>
       </c>
       <c r="E46" t="n">
-        <v>26.32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>410.76</v>
+        <v>369.06</v>
       </c>
       <c r="D47" t="n">
-        <v>498.66</v>
+        <v>423.32</v>
       </c>
       <c r="E47" t="n">
-        <v>3.064</v>
+        <v>1.568</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>426.06</v>
+        <v>423.32</v>
       </c>
       <c r="D48" t="n">
-        <v>513.36</v>
+        <v>506.98</v>
       </c>
       <c r="E48" t="n">
-        <v>3.044</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
@@ -1359,60 +1359,60 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>573.51</v>
+        <v>466.48</v>
       </c>
       <c r="D49" t="n">
-        <v>631.25</v>
+        <v>536.1799999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>22.176</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>392.58</v>
+        <v>536.1799999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>461.36</v>
+        <v>617.52</v>
       </c>
       <c r="E50" t="n">
-        <v>2.344</v>
+        <v>25.996</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>461.36</v>
+        <v>506.98</v>
       </c>
       <c r="D51" t="n">
-        <v>528.67</v>
+        <v>548.8200000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>30</v>
+        <v>26.516</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1420,13 +1420,70 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>528.67</v>
+        <v>446.86</v>
       </c>
       <c r="D52" t="n">
-        <v>594.11</v>
+        <v>506.6</v>
       </c>
       <c r="E52" t="n">
-        <v>26.136</v>
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>5</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>depot2</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>506.6</v>
+      </c>
+      <c r="D53" t="n">
+        <v>592.84</v>
+      </c>
+      <c r="E53" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>pond24</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>490.42</v>
+      </c>
+      <c r="D54" t="n">
+        <v>533.96</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.624</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>depot1</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>533.96</v>
+      </c>
+      <c r="D55" t="n">
+        <v>597.71</v>
+      </c>
+      <c r="E55" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
